--- a/medicine/Enfance/Anaïs_Vaugelade/Anaïs_Vaugelade.xlsx
+++ b/medicine/Enfance/Anaïs_Vaugelade/Anaïs_Vaugelade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ana%C3%AFs_Vaugelade</t>
+          <t>Anaïs_Vaugelade</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anaïs Vaugelade (1973 à Saint-Ouen en France) est une écrivaine et illustratrice, auteure de littérature d'enfance et de jeunesse française. Elle est également éditrice.
-Elle collabore régulièrement à Philosophie Magazine, avec la rubrique Comme des grands[1]
+Elle collabore régulièrement à Philosophie Magazine, avec la rubrique Comme des grands
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana%C3%AFs_Vaugelade</t>
+          <t>Anaïs_Vaugelade</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a suivi des études de photographie à l'École nationale des arts décoratifs de Paris. Alors qu'elle y est encore élève, elle débute comme illustratrice avec un premier titre publié en 1992 à l'École des loisirs : Ne me raconte plus d'histoires, maman !, sur un texte de Sophie Chérer.
 Elle vit actuellement à Paris.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana%C3%AFs_Vaugelade</t>
+          <t>Anaïs_Vaugelade</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Source : bnf[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Source : bnf.
 Prix Livrimages [Union nationale Culture et bibliothèques pour tous] pour Laurent tout seul, en 1997
 Prix Chrétien de Troyes pour La Guerre, en 1998
 Prix de l'illustration jeunesse, meilleur album [Rueil-Malmaison], pour La Guerre, en 1998
@@ -559,7 +575,7 @@
 Prix Bernard Versele, catégorie 3 chouettes, pour Le Déjeuner de la petite ogresse, en 2004
 Prix Livres élus [Le Puy-en-Velay], pour Le Déjeuner de la petite ogresse, en 2004
 Prix Millepages jeunesse [librairie Millepages, Vincennes], pour L'Ami du petit tyrannosaure, en 2004
-Coup de cœur Jeune Public automne 2018 de l'Académie Charles-Cros pour Des malheurs de Sophie[3].</t>
+Coup de cœur Jeune Public automne 2018 de l'Académie Charles-Cros pour Des malheurs de Sophie.</t>
         </is>
       </c>
     </row>
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ana%C3%AFs_Vaugelade</t>
+          <t>Anaïs_Vaugelade</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Auteure et illustratrice
+          <t>Auteure et illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Virgile et le vaisseau spatial, 1993
 L'Anniversaire de Monsieur Guillaume,1994
 Avale, Léonardichon, 1994
@@ -623,8 +645,44 @@
 Le Chevalier et la forêt, 2012
 Te voilà !, 2013
 Comment fabriquer son grand frère, novembre 2016
-Des malheurs de Sophie, 2018[4]
-Illustratrice
+Des malheurs de Sophie, 2018
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anaïs_Vaugelade</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ana%C3%AFs_Vaugelade</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ne me raconte plus d'histoires, maman !, texte de Sophie Chérer, 1992
 Ma vengeance sera terrible, texte de Moka (Elvire Murail), 1995
 Taxi et le bunyip, texte de Christian Lehmann, 1995
@@ -661,7 +719,43 @@
 Le Poulet fermier, texte d'Agnès Desarthe, 2013
 L'Invitation faite au loup, texte de Christian Oster, 2013
 Mes animaux, texte d'Agnès Desarthe, 2014
-Réalisatrice de séquences d'animation
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anaïs_Vaugelade</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ana%C3%AFs_Vaugelade</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Réalisatrice de séquences d'animation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La vie ne me fait pas peur, film de Noémie Lvovsky, 1999
 Il est plus facile pour un chameau..., film de Valeria Bruni Tedeschi, 2002
 Les sentiments, film de Noémie Lvovsky, 2003
